--- a/app_SOWmAcHiNe_2019/book01.xlsx
+++ b/app_SOWmAcHiNe_2019/book01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudz4/Desktop/BOOK-II/servicenow-interview-proj/app_SOWmAcHiNe_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5D1DBBE-C3E0-E247-B976-BF7B7D085877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C98401BE-E780-2946-8C08-DF3DBB5C4933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{80C39E82-080A-9D4B-94E9-3502A52640CF}"/>
+    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{72264E33-31E0-B547-9198-0E76F3D0A439}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1067,7 +1067,7 @@
         <xdr:cNvPr id="3" name="hours_breakdown">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1327E295-8FEF-E313-D6BA-8079B9F2F79D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121A9CA3-DEB2-497C-5CD4-12A2C25DB089}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1117,7 +1117,7 @@
         <xdr:cNvPr id="5" name="cost_breakdown">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49EFF2A7-CDD4-C6CA-6765-48E69FDFAD78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E408614-BB59-E6F8-7556-25CEE97D1CA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,7 +1468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167413EB-6FA8-DC4A-BC62-2D6B53BE932B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F892F3-F7F0-8645-BE33-A9728A531321}">
   <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
@@ -1520,7 +1520,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="7"/>
       <c r="H2" s="1">
-        <v>45550.935150462959</v>
+        <v>45550.95890046296</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">

--- a/app_SOWmAcHiNe_2019/book01.xlsx
+++ b/app_SOWmAcHiNe_2019/book01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudz4/Desktop/BOOK-II/servicenow-interview-proj/app_SOWmAcHiNe_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C98401BE-E780-2946-8C08-DF3DBB5C4933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2F1E65D-C46E-8642-9B94-09C42F50CFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{72264E33-31E0-B547-9198-0E76F3D0A439}"/>
+    <workbookView xWindow="8120" yWindow="1020" windowWidth="28040" windowHeight="17440" xr2:uid="{E7649BCA-D5E2-114E-B072-722FEED0B288}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1067,7 +1067,7 @@
         <xdr:cNvPr id="3" name="hours_breakdown">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121A9CA3-DEB2-497C-5CD4-12A2C25DB089}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B29287-C7D4-78B5-B9E9-46A480B49F9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1117,7 +1117,7 @@
         <xdr:cNvPr id="5" name="cost_breakdown">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E408614-BB59-E6F8-7556-25CEE97D1CA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFD95933-1B74-F534-EF99-0D4CCF20455A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,7 +1468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F892F3-F7F0-8645-BE33-A9728A531321}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1F5EAA-7292-C449-9163-FD2DF63C1460}">
   <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
@@ -1520,7 +1520,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="7"/>
       <c r="H2" s="1">
-        <v>45550.95890046296</v>
+        <v>45550.982858796298</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">

--- a/app_SOWmAcHiNe_2019/book01.xlsx
+++ b/app_SOWmAcHiNe_2019/book01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudz4/Desktop/BOOK-II/servicenow-interview-proj/app_SOWmAcHiNe_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2F1E65D-C46E-8642-9B94-09C42F50CFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A21C51E9-6111-3F43-AD17-24C6FFE872CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8120" yWindow="1020" windowWidth="28040" windowHeight="17440" xr2:uid="{E7649BCA-D5E2-114E-B072-722FEED0B288}"/>
+    <workbookView xWindow="240" yWindow="1000" windowWidth="50700" windowHeight="19880" xr2:uid="{478754A5-89E8-5840-9258-163DA3B6068E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1067,7 +1067,7 @@
         <xdr:cNvPr id="3" name="hours_breakdown">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B29287-C7D4-78B5-B9E9-46A480B49F9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6107F0BA-9A11-C9BA-E920-956F5F4B819D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1117,7 +1117,7 @@
         <xdr:cNvPr id="5" name="cost_breakdown">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFD95933-1B74-F534-EF99-0D4CCF20455A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE74BCC-2D59-F613-0B23-E2BC0D2905A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,10 +1468,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1F5EAA-7292-C449-9163-FD2DF63C1460}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42CC7D9-35C3-784C-9C37-95D883ABA627}">
   <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
       <selection activeCell="B162" sqref="B162:G177"/>
     </sheetView>
   </sheetViews>
@@ -1520,7 +1520,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="7"/>
       <c r="H2" s="1">
-        <v>45550.982858796298</v>
+        <v>45550.984780092593</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
